--- a/biology/Botanique/Ipomée/Ipomée.xlsx
+++ b/biology/Botanique/Ipomée/Ipomée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ipom%C3%A9e</t>
+          <t>Ipomée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea
-Ipomoea est un genre d’environ 500 espèces de plantes volubiles, d’arbustes ou d’arbres de la famille des Convolvulaceae. Certaines études (D. Austin, 1997) en recensent entre 600 et 700 dont plus de la moitié est originaire d'Amérique du Nord ou du Sud. Le genre s'est révélé très polyphylétique[3].
+Ipomoea est un genre d’environ 500 espèces de plantes volubiles, d’arbustes ou d’arbres de la famille des Convolvulaceae. Certaines études (D. Austin, 1997) en recensent entre 600 et 700 dont plus de la moitié est originaire d'Amérique du Nord ou du Sud. Le genre s'est révélé très polyphylétique.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ipom%C3%A9e</t>
+          <t>Ipomée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ipomoea alba L.
@@ -597,7 +611,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ipom%C3%A9e</t>
+          <t>Ipomée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -615,10 +629,12 @@
           <t>Effets psychotropes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les graines de certaines espèces, appelées aussi morning glory, sont employées par les chamans pour des rites divinatoires sous les noms de ololiuqui (olioliuqui) ou de tlitliltzin.
-Albert Hofmann fut le premier à annoncer que ces graines contenaient un dérivé d'acide lysergique, ce qui fut confirmé par la suite grâce à des études chimiques. Le principal composant psychoactif est l'ergine ou acide d-lysergique amide, mais on trouve de nombreux autres principes actifs comme l'isoergine (acide d-isolysergique). Ces substances ne sont pas produites par la plante mais par un champignon épiphyte associé Periglandula ipomoeae[4].
+Albert Hofmann fut le premier à annoncer que ces graines contenaient un dérivé d'acide lysergique, ce qui fut confirmé par la suite grâce à des études chimiques. Le principal composant psychoactif est l'ergine ou acide d-lysergique amide, mais on trouve de nombreux autres principes actifs comme l'isoergine (acide d-isolysergique). Ces substances ne sont pas produites par la plante mais par un champignon épiphyte associé Periglandula ipomoeae.
 </t>
         </is>
       </c>
@@ -629,7 +645,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ipom%C3%A9e</t>
+          <t>Ipomée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -647,9 +663,11 @@
           <t>Autres utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour augmenter l'élasticité du caoutchouc de leurs balles, chaussures, etc. produites à partir de la sève du Castilla elastica - et non de l’hévéa (Hevea brasiliensis) - les Aztèques, les Mayas et les Olmèques ajoutaient le suc de l’ipomée blanche, permettant de réaliser une sorte de vulcanisation avant la lettre[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour augmenter l'élasticité du caoutchouc de leurs balles, chaussures, etc. produites à partir de la sève du Castilla elastica - et non de l’hévéa (Hevea brasiliensis) - les Aztèques, les Mayas et les Olmèques ajoutaient le suc de l’ipomée blanche, permettant de réaliser une sorte de vulcanisation avant la lettre.
 La patate douce (Ipomoea batatas) produit une racine riche en amidon. Au Maroc, la confiture de patate douce est appelée « crème d´ipomée ».
 </t>
         </is>
@@ -661,7 +679,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Ipom%C3%A9e</t>
+          <t>Ipomée</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -679,7 +697,9 @@
           <t>Faune associée</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chenilles des papillons de nuit (hétérocères) suivants se nourrissent d'Ipomées :
 Clair-obscur, Aedia leucomelas (Noctuidae),
@@ -698,7 +718,7 @@
 Theretra silhetensis (Sphingidae).
 Parmi les rhopalocères, l'Ipomée est une des plantes hôtes de:
 Amauris niavius (Nymphalidae),
-Danaus plexippus (Nymphalidae)[6].
+Danaus plexippus (Nymphalidae).
 On retrouve aussi le Casside doré dans les Gloire du matin et la Patate douce.
 </t>
         </is>
